--- a/database/industries/ghand/ghesafha/product/yearly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7960FF-41C5-4B79-8CD4-3C246AE1DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +386,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -397,7 +398,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/ghand/ghesafha/product/yearly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7960FF-41C5-4B79-8CD4-3C246AE1DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF95CC0-FC02-4EB6-80CB-599147CCC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,22 +61,22 @@
     <t>تن</t>
   </si>
   <si>
+    <t>ملاس</t>
+  </si>
+  <si>
+    <t>شکرتولیدی از شکرخام خریداری</t>
+  </si>
+  <si>
+    <t>شکر تولیدی از چغندر</t>
+  </si>
+  <si>
+    <t>قند تولیدی از چغندر</t>
+  </si>
+  <si>
+    <t>شکر آفینه</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>ملاس</t>
-  </si>
-  <si>
-    <t>شکرتولیدی از شکرخام خریداری</t>
-  </si>
-  <si>
-    <t>شکر تولیدی از چغندر</t>
-  </si>
-  <si>
-    <t>قند تولیدی از چغندر</t>
-  </si>
-  <si>
-    <t>شکر آفینه</t>
   </si>
   <si>
     <t>الکل</t>
@@ -670,12 +670,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +685,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -719,7 +719,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -753,7 +753,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -785,7 +785,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -805,104 +805,104 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>44037</v>
+      </c>
+      <c r="F11" s="11">
+        <v>25515</v>
+      </c>
+      <c r="G11" s="11">
+        <v>29991</v>
+      </c>
+      <c r="H11" s="11">
+        <v>24246</v>
+      </c>
+      <c r="I11" s="11">
+        <v>24317</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>44037</v>
-      </c>
-      <c r="G11" s="11">
-        <v>25515</v>
-      </c>
-      <c r="H11" s="11">
-        <v>29991</v>
-      </c>
-      <c r="I11" s="11">
-        <v>24246</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>10792</v>
       </c>
       <c r="F12" s="13">
-        <v>10792</v>
+        <v>10690</v>
       </c>
       <c r="G12" s="13">
-        <v>10690</v>
+        <v>12931</v>
       </c>
       <c r="H12" s="13">
-        <v>12931</v>
+        <v>17074</v>
       </c>
       <c r="I12" s="13">
-        <v>17074</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>3365</v>
       </c>
       <c r="F13" s="11">
-        <v>3365</v>
+        <v>24529</v>
       </c>
       <c r="G13" s="11">
-        <v>24529</v>
+        <v>4900</v>
       </c>
       <c r="H13" s="11">
-        <v>4900</v>
+        <v>27</v>
       </c>
       <c r="I13" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>71791</v>
       </c>
       <c r="F14" s="13">
-        <v>71791</v>
+        <v>60161</v>
       </c>
       <c r="G14" s="13">
-        <v>60161</v>
+        <v>58047</v>
       </c>
       <c r="H14" s="13">
-        <v>58047</v>
+        <v>68685</v>
       </c>
       <c r="I14" s="13">
-        <v>68685</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60653</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>1</v>
       </c>
       <c r="F15" s="11">
         <v>1</v>
@@ -911,37 +911,37 @@
         <v>1</v>
       </c>
       <c r="H15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -950,22 +950,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -974,22 +974,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -998,22 +998,22 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H19" s="11">
+        <v>10723</v>
       </c>
       <c r="I19" s="11">
-        <v>10723</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1022,44 +1022,44 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1075</v>
       </c>
       <c r="I20" s="13">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>129986</v>
       </c>
       <c r="F21" s="15">
-        <v>129986</v>
+        <v>120896</v>
       </c>
       <c r="G21" s="15">
-        <v>120896</v>
+        <v>105870</v>
       </c>
       <c r="H21" s="15">
-        <v>105870</v>
+        <v>121830</v>
       </c>
       <c r="I21" s="15">
-        <v>121830</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>114682</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1079,33 +1079,33 @@
         <v>12</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>13</v>
+      <c r="E23" s="11">
+        <v>6724</v>
       </c>
       <c r="F23" s="11">
-        <v>6724</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>6724</v>
       </c>
       <c r="F24" s="17">
-        <v>6724</v>
+        <v>0</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
@@ -1137,8 +1137,8 @@
         <v>12</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>13</v>
+      <c r="E26" s="11">
+        <v>0</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>83714</v>
       </c>
       <c r="I26" s="11">
-        <v>83714</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78764</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
@@ -1169,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="17">
-        <v>0</v>
+        <v>83714</v>
       </c>
       <c r="I27" s="17">
-        <v>83714</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78764</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
@@ -1183,8 +1183,8 @@
         <v>31</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>13</v>
+      <c r="E28" s="15">
+        <v>0</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1192,21 +1192,21 @@
       <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="15">
-        <v>0</v>
+      <c r="H28" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>13</v>
+      <c r="E29" s="17">
+        <v>0</v>
       </c>
       <c r="F29" s="17">
         <v>0</v>
@@ -1221,29 +1221,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>136710</v>
       </c>
       <c r="F30" s="15">
-        <v>136710</v>
+        <v>120896</v>
       </c>
       <c r="G30" s="15">
-        <v>120896</v>
+        <v>105870</v>
       </c>
       <c r="H30" s="15">
-        <v>105870</v>
+        <v>205544</v>
       </c>
       <c r="I30" s="15">
-        <v>205544</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>193446</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1253,7 +1253,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1263,7 +1263,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1273,7 +1273,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1305,7 +1305,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
@@ -1325,143 +1325,143 @@
         <v>36</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11">
+        <v>432673</v>
+      </c>
+      <c r="F37" s="11">
+        <v>412801</v>
+      </c>
+      <c r="G37" s="11">
+        <v>623893</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1219654</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2055017</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="11">
-        <v>432673</v>
-      </c>
-      <c r="G37" s="11">
-        <v>412801</v>
-      </c>
-      <c r="H37" s="11">
-        <v>623893</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1219654</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13">
+        <v>58555</v>
+      </c>
+      <c r="F38" s="13">
+        <v>233787</v>
+      </c>
+      <c r="G38" s="13">
+        <v>361409</v>
+      </c>
+      <c r="H38" s="13">
+        <v>597576</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1066143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="13">
-        <v>58555</v>
-      </c>
-      <c r="G38" s="13">
-        <v>233787</v>
-      </c>
-      <c r="H38" s="13">
-        <v>361409</v>
-      </c>
-      <c r="I38" s="13">
-        <v>597576</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
+        <v>92880</v>
+      </c>
+      <c r="F39" s="11">
+        <v>993406</v>
+      </c>
+      <c r="G39" s="11">
+        <v>198430</v>
+      </c>
+      <c r="H39" s="11">
+        <v>3405</v>
+      </c>
+      <c r="I39" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11">
-        <v>92880</v>
-      </c>
-      <c r="G39" s="11">
-        <v>993406</v>
-      </c>
-      <c r="H39" s="11">
-        <v>198430</v>
-      </c>
-      <c r="I39" s="11">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13">
+        <v>2178955</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2595401</v>
+      </c>
+      <c r="G40" s="13">
+        <v>3721681</v>
+      </c>
+      <c r="H40" s="13">
+        <v>8423055</v>
+      </c>
+      <c r="I40" s="13">
+        <v>10884027</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="13">
-        <v>2178955</v>
-      </c>
-      <c r="G40" s="13">
-        <v>2595401</v>
-      </c>
-      <c r="H40" s="13">
-        <v>3721681</v>
-      </c>
-      <c r="I40" s="13">
-        <v>8423055</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11">
         <v>17</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="F41" s="11">
+        <v>28</v>
+      </c>
+      <c r="G41" s="11">
+        <v>50</v>
+      </c>
+      <c r="H41" s="11">
+        <v>65</v>
+      </c>
+      <c r="I41" s="11">
+        <v>49217</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="G41" s="11">
-        <v>28</v>
-      </c>
-      <c r="H41" s="11">
-        <v>50</v>
-      </c>
-      <c r="I41" s="11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1470,22 +1470,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1494,22 +1494,22 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>21</v>
       </c>
@@ -1518,22 +1518,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H45" s="11">
+        <v>72459</v>
       </c>
       <c r="I45" s="11">
-        <v>72459</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80448</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
@@ -1542,44 +1542,44 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H46" s="13">
+        <v>20874</v>
       </c>
       <c r="I46" s="13">
-        <v>20874</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>2763080</v>
       </c>
       <c r="F47" s="15">
-        <v>2763080</v>
+        <v>4235423</v>
       </c>
       <c r="G47" s="15">
-        <v>4235423</v>
+        <v>4905463</v>
       </c>
       <c r="H47" s="15">
-        <v>4905463</v>
+        <v>10337088</v>
       </c>
       <c r="I47" s="15">
-        <v>10337088</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14141179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>25</v>
       </c>
@@ -1599,33 +1599,33 @@
         <v>36</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
+      <c r="E49" s="11">
+        <v>149486</v>
       </c>
       <c r="F49" s="11">
-        <v>149486</v>
+        <v>0</v>
       </c>
       <c r="G49" s="11">
         <v>0</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17">
-        <v>0</v>
+        <v>149486</v>
       </c>
       <c r="F50" s="17">
-        <v>149486</v>
+        <v>0</v>
       </c>
       <c r="G50" s="17">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>28</v>
       </c>
@@ -1657,45 +1657,45 @@
         <v>36</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>13</v>
+      <c r="E52" s="11">
+        <v>39756</v>
       </c>
       <c r="F52" s="11">
-        <v>39756</v>
+        <v>168357</v>
       </c>
       <c r="G52" s="11">
-        <v>168357</v>
+        <v>158328</v>
       </c>
       <c r="H52" s="11">
-        <v>158328</v>
+        <v>319617</v>
       </c>
       <c r="I52" s="11">
-        <v>319617</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>580253</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17">
-        <v>0</v>
+        <v>39756</v>
       </c>
       <c r="F53" s="17">
-        <v>39756</v>
+        <v>168357</v>
       </c>
       <c r="G53" s="17">
-        <v>168357</v>
+        <v>158328</v>
       </c>
       <c r="H53" s="17">
-        <v>158328</v>
+        <v>319617</v>
       </c>
       <c r="I53" s="17">
-        <v>319617</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>580253</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>30</v>
       </c>
@@ -1703,8 +1703,8 @@
         <v>36</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>13</v>
+      <c r="E54" s="15">
+        <v>0</v>
       </c>
       <c r="F54" s="15">
         <v>0</v>
@@ -1712,14 +1712,14 @@
       <c r="G54" s="15">
         <v>0</v>
       </c>
-      <c r="H54" s="15">
-        <v>0</v>
+      <c r="H54" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>32</v>
       </c>
@@ -1727,8 +1727,8 @@
         <v>36</v>
       </c>
       <c r="D55" s="17"/>
-      <c r="E55" s="17" t="s">
-        <v>13</v>
+      <c r="E55" s="17">
+        <v>0</v>
       </c>
       <c r="F55" s="17">
         <v>0</v>
@@ -1743,29 +1743,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>0</v>
+        <v>2952322</v>
       </c>
       <c r="F56" s="15">
-        <v>2952322</v>
+        <v>4403780</v>
       </c>
       <c r="G56" s="15">
-        <v>4403780</v>
+        <v>5063791</v>
       </c>
       <c r="H56" s="15">
-        <v>5063791</v>
+        <v>10656705</v>
       </c>
       <c r="I56" s="15">
-        <v>10656705</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14721432</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1775,7 +1775,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1785,7 +1785,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1795,7 +1795,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>39</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1827,7 +1827,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>11</v>
       </c>
@@ -1847,143 +1847,143 @@
         <v>41</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="11">
+        <v>9825215</v>
+      </c>
+      <c r="F63" s="11">
+        <v>16178758</v>
+      </c>
+      <c r="G63" s="11">
+        <v>20802674</v>
+      </c>
+      <c r="H63" s="11">
+        <v>50303308</v>
+      </c>
+      <c r="I63" s="11">
+        <v>84509479</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F63" s="11">
-        <v>9825215</v>
-      </c>
-      <c r="G63" s="11">
-        <v>16178758</v>
-      </c>
-      <c r="H63" s="11">
-        <v>20802674</v>
-      </c>
-      <c r="I63" s="11">
-        <v>50303308</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
+      <c r="E64" s="13">
+        <v>5425778</v>
       </c>
       <c r="F64" s="13">
-        <v>5425778</v>
+        <v>21869691</v>
       </c>
       <c r="G64" s="13">
-        <v>21869691</v>
+        <v>27949037</v>
       </c>
       <c r="H64" s="13">
-        <v>27949037</v>
+        <v>34999180</v>
       </c>
       <c r="I64" s="13">
-        <v>34999180</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55699441</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>13</v>
+      <c r="E65" s="11">
+        <v>27601783</v>
       </c>
       <c r="F65" s="11">
-        <v>27601783</v>
+        <v>40499246</v>
       </c>
       <c r="G65" s="11">
-        <v>40499246</v>
+        <v>40495918</v>
       </c>
       <c r="H65" s="11">
-        <v>40495918</v>
+        <v>126111111</v>
       </c>
       <c r="I65" s="11">
-        <v>126111111</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>13</v>
+      <c r="E66" s="13">
+        <v>30351367</v>
       </c>
       <c r="F66" s="13">
-        <v>30351367</v>
+        <v>43140922</v>
       </c>
       <c r="G66" s="13">
-        <v>43140922</v>
+        <v>64114959</v>
       </c>
       <c r="H66" s="13">
-        <v>64114959</v>
+        <v>122633108</v>
       </c>
       <c r="I66" s="13">
-        <v>122633108</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179447463</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>32075472</v>
       </c>
       <c r="F67" s="11">
-        <v>32075472</v>
+        <v>28000000</v>
       </c>
       <c r="G67" s="11">
-        <v>28000000</v>
+        <v>50000000</v>
       </c>
       <c r="H67" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213986957</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -1992,22 +1992,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>20</v>
       </c>
@@ -2016,22 +2016,22 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>21</v>
       </c>
@@ -2040,22 +2040,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H71" s="11">
+        <v>6757344</v>
       </c>
       <c r="I71" s="11">
-        <v>6757344</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7999205</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>22</v>
       </c>
@@ -2064,22 +2064,22 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H72" s="13">
+        <v>19417674</v>
       </c>
       <c r="I72" s="13">
-        <v>19417674</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22109541</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>42</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>25</v>
       </c>
@@ -2099,23 +2099,23 @@
         <v>41</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>13</v>
+      <c r="E74" s="11">
+        <v>22231707</v>
       </c>
       <c r="F74" s="11">
-        <v>22231707</v>
+        <v>0</v>
       </c>
       <c r="G74" s="11">
         <v>0</v>
       </c>
-      <c r="H74" s="11">
-        <v>0</v>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>28</v>
       </c>
@@ -2135,8 +2135,8 @@
         <v>41</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
+      <c r="E76" s="11">
+        <v>0</v>
       </c>
       <c r="F76" s="11">
         <v>0</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="H76" s="11">
-        <v>0</v>
+        <v>3817964</v>
       </c>
       <c r="I76" s="11">
-        <v>3817964</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7366982</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2161,7 +2161,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2171,7 +2171,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2181,7 +2181,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>44</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2213,7 +2213,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>45</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
@@ -2233,143 +2233,143 @@
         <v>36</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="11">
+        <v>-265830</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-261656</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-460020</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-711866</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-1106161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="11">
-        <v>-265830</v>
-      </c>
-      <c r="G83" s="11">
-        <v>-261656</v>
-      </c>
-      <c r="H83" s="11">
-        <v>-460020</v>
-      </c>
-      <c r="I83" s="11">
-        <v>-711866</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="12" t="s">
+      <c r="C84" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13">
+        <v>-46861</v>
+      </c>
+      <c r="F84" s="13">
+        <v>-57085</v>
+      </c>
+      <c r="G84" s="13">
+        <v>-109778</v>
+      </c>
+      <c r="H84" s="13">
+        <v>-286849</v>
+      </c>
+      <c r="I84" s="13">
+        <v>-558079</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="13">
-        <v>-46861</v>
-      </c>
-      <c r="G84" s="13">
-        <v>-57085</v>
-      </c>
-      <c r="H84" s="13">
-        <v>-109778</v>
-      </c>
-      <c r="I84" s="13">
-        <v>-286849</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11">
+        <v>-77502</v>
+      </c>
+      <c r="F85" s="11">
+        <v>-962930</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-192312</v>
+      </c>
+      <c r="H85" s="11">
+        <v>-1060</v>
+      </c>
+      <c r="I85" s="11">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="11">
-        <v>-77502</v>
-      </c>
-      <c r="G85" s="11">
-        <v>-962930</v>
-      </c>
-      <c r="H85" s="11">
-        <v>-192312</v>
-      </c>
-      <c r="I85" s="11">
-        <v>-1060</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
+      <c r="C86" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13">
+        <v>-1894708</v>
+      </c>
+      <c r="F86" s="13">
+        <v>-2118422</v>
+      </c>
+      <c r="G86" s="13">
+        <v>-3246323</v>
+      </c>
+      <c r="H86" s="13">
+        <v>-7250884</v>
+      </c>
+      <c r="I86" s="13">
+        <v>-10276717</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13">
-        <v>-1894708</v>
-      </c>
-      <c r="G86" s="13">
-        <v>-2118422</v>
-      </c>
-      <c r="H86" s="13">
-        <v>-3246323</v>
-      </c>
-      <c r="I86" s="13">
-        <v>-7250884</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C87" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
+      <c r="E87" s="11">
+        <v>-9</v>
       </c>
       <c r="F87" s="11">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="G87" s="11">
         <v>-11</v>
       </c>
       <c r="H87" s="11">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="I87" s="11">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-46710</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
@@ -2378,22 +2378,22 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>20</v>
       </c>
@@ -2402,22 +2402,22 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>21</v>
       </c>
@@ -2426,22 +2426,22 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H91" s="11">
+        <v>-311730</v>
       </c>
       <c r="I91" s="11">
-        <v>-311730</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-457485</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>22</v>
       </c>
@@ -2450,44 +2450,44 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H92" s="13">
+        <v>-119437</v>
       </c>
       <c r="I92" s="13">
-        <v>-119437</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-47950</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>-2284910</v>
       </c>
       <c r="F93" s="15">
-        <v>-2284910</v>
+        <v>-3400104</v>
       </c>
       <c r="G93" s="15">
-        <v>-3400104</v>
+        <v>-4008444</v>
       </c>
       <c r="H93" s="15">
-        <v>-4008444</v>
+        <v>-8681834</v>
       </c>
       <c r="I93" s="15">
-        <v>-8681834</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-12493123</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>25</v>
       </c>
@@ -2507,33 +2507,33 @@
         <v>36</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>13</v>
+      <c r="E95" s="11">
+        <v>-128014</v>
       </c>
       <c r="F95" s="11">
-        <v>-128014</v>
+        <v>0</v>
       </c>
       <c r="G95" s="11">
         <v>0</v>
       </c>
-      <c r="H95" s="11">
-        <v>0</v>
+      <c r="H95" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17">
-        <v>0</v>
+        <v>-128014</v>
       </c>
       <c r="F96" s="17">
-        <v>-128014</v>
+        <v>0</v>
       </c>
       <c r="G96" s="17">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>49</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>28</v>
       </c>
@@ -2565,45 +2565,45 @@
         <v>36</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>13</v>
+      <c r="E98" s="11">
+        <v>-80679</v>
       </c>
       <c r="F98" s="11">
-        <v>-80679</v>
+        <v>-202320</v>
       </c>
       <c r="G98" s="11">
-        <v>-202320</v>
+        <v>-254410</v>
       </c>
       <c r="H98" s="11">
-        <v>-254410</v>
+        <v>-520074</v>
       </c>
       <c r="I98" s="11">
-        <v>-520074</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-665848</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17">
-        <v>0</v>
+        <v>-80679</v>
       </c>
       <c r="F99" s="17">
-        <v>-80679</v>
+        <v>-202320</v>
       </c>
       <c r="G99" s="17">
-        <v>-202320</v>
+        <v>-254410</v>
       </c>
       <c r="H99" s="17">
-        <v>-254410</v>
+        <v>-520074</v>
       </c>
       <c r="I99" s="17">
-        <v>-520074</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-665848</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>30</v>
       </c>
@@ -2611,8 +2611,8 @@
         <v>36</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="15" t="s">
-        <v>13</v>
+      <c r="E100" s="15">
+        <v>0</v>
       </c>
       <c r="F100" s="15">
         <v>0</v>
@@ -2620,14 +2620,14 @@
       <c r="G100" s="15">
         <v>0</v>
       </c>
-      <c r="H100" s="15">
-        <v>0</v>
+      <c r="H100" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="16" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2635,8 @@
         <v>36</v>
       </c>
       <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
-        <v>13</v>
+      <c r="E101" s="17">
+        <v>0</v>
       </c>
       <c r="F101" s="17">
         <v>0</v>
@@ -2651,29 +2651,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
-        <v>0</v>
+        <v>-2493603</v>
       </c>
       <c r="F102" s="15">
-        <v>-2493603</v>
+        <v>-3602424</v>
       </c>
       <c r="G102" s="15">
-        <v>-3602424</v>
+        <v>-4262854</v>
       </c>
       <c r="H102" s="15">
-        <v>-4262854</v>
+        <v>-9201908</v>
       </c>
       <c r="I102" s="15">
-        <v>-9201908</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13158971</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2683,7 +2683,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2703,7 +2703,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>51</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>11</v>
       </c>
@@ -2755,143 +2755,143 @@
         <v>36</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="11">
+        <v>166843</v>
+      </c>
+      <c r="F109" s="11">
+        <v>151145</v>
+      </c>
+      <c r="G109" s="11">
+        <v>163873</v>
+      </c>
+      <c r="H109" s="11">
+        <v>507788</v>
+      </c>
+      <c r="I109" s="11">
+        <v>948856</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="11">
-        <v>166843</v>
-      </c>
-      <c r="G109" s="11">
-        <v>151145</v>
-      </c>
-      <c r="H109" s="11">
-        <v>163873</v>
-      </c>
-      <c r="I109" s="11">
-        <v>507788</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="12" t="s">
+      <c r="C110" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13">
+        <v>11694</v>
+      </c>
+      <c r="F110" s="13">
+        <v>176702</v>
+      </c>
+      <c r="G110" s="13">
+        <v>251631</v>
+      </c>
+      <c r="H110" s="13">
+        <v>310727</v>
+      </c>
+      <c r="I110" s="13">
+        <v>508064</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="13">
-        <v>11694</v>
-      </c>
-      <c r="G110" s="13">
-        <v>176702</v>
-      </c>
-      <c r="H110" s="13">
-        <v>251631</v>
-      </c>
-      <c r="I110" s="13">
-        <v>310727</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
+      <c r="C111" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11">
+        <v>15378</v>
+      </c>
+      <c r="F111" s="11">
+        <v>30476</v>
+      </c>
+      <c r="G111" s="11">
+        <v>6118</v>
+      </c>
+      <c r="H111" s="11">
+        <v>2345</v>
+      </c>
+      <c r="I111" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="11">
-        <v>15378</v>
-      </c>
-      <c r="G111" s="11">
-        <v>30476</v>
-      </c>
-      <c r="H111" s="11">
-        <v>6118</v>
-      </c>
-      <c r="I111" s="11">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="12" t="s">
+      <c r="C112" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13">
+        <v>284247</v>
+      </c>
+      <c r="F112" s="13">
+        <v>476979</v>
+      </c>
+      <c r="G112" s="13">
+        <v>475358</v>
+      </c>
+      <c r="H112" s="13">
+        <v>1172171</v>
+      </c>
+      <c r="I112" s="13">
+        <v>607310</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="13">
-        <v>284247</v>
-      </c>
-      <c r="G112" s="13">
-        <v>476979</v>
-      </c>
-      <c r="H112" s="13">
-        <v>475358</v>
-      </c>
-      <c r="I112" s="13">
-        <v>1172171</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
+      <c r="C113" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11">
+        <v>8</v>
+      </c>
+      <c r="F113" s="11">
         <v>17</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="11">
-        <v>8</v>
-      </c>
       <c r="G113" s="11">
+        <v>39</v>
+      </c>
+      <c r="H113" s="11">
+        <v>57</v>
+      </c>
+      <c r="I113" s="11">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="H113" s="11">
-        <v>39</v>
-      </c>
-      <c r="I113" s="11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>19</v>
       </c>
@@ -2900,22 +2900,22 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>20</v>
       </c>
@@ -2924,22 +2924,22 @@
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>21</v>
       </c>
@@ -2948,22 +2948,22 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H117" s="11">
+        <v>-239271</v>
       </c>
       <c r="I117" s="11">
-        <v>-239271</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-377037</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>22</v>
       </c>
@@ -2972,44 +2972,44 @@
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H118" s="13">
+        <v>-98563</v>
       </c>
       <c r="I118" s="13">
-        <v>-98563</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-41693</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>0</v>
+        <v>478170</v>
       </c>
       <c r="F119" s="15">
-        <v>478170</v>
+        <v>835319</v>
       </c>
       <c r="G119" s="15">
-        <v>835319</v>
+        <v>897019</v>
       </c>
       <c r="H119" s="15">
-        <v>897019</v>
+        <v>1655254</v>
       </c>
       <c r="I119" s="15">
-        <v>1655254</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1648056</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>54</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>25</v>
       </c>
@@ -3029,33 +3029,33 @@
         <v>36</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>13</v>
+      <c r="E121" s="11">
+        <v>21472</v>
       </c>
       <c r="F121" s="11">
-        <v>21472</v>
+        <v>0</v>
       </c>
       <c r="G121" s="11">
         <v>0</v>
       </c>
-      <c r="H121" s="11">
-        <v>0</v>
+      <c r="H121" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17">
-        <v>0</v>
+        <v>21472</v>
       </c>
       <c r="F122" s="17">
-        <v>21472</v>
+        <v>0</v>
       </c>
       <c r="G122" s="17">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>56</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>28</v>
       </c>
@@ -3087,64 +3087,64 @@
         <v>36</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>13</v>
+      <c r="E124" s="11">
+        <v>-40923</v>
       </c>
       <c r="F124" s="11">
-        <v>-40923</v>
+        <v>-33963</v>
       </c>
       <c r="G124" s="11">
-        <v>-33963</v>
+        <v>-96082</v>
       </c>
       <c r="H124" s="11">
-        <v>-96082</v>
+        <v>-200457</v>
       </c>
       <c r="I124" s="11">
-        <v>-200457</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-85595</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17">
-        <v>0</v>
+        <v>-40923</v>
       </c>
       <c r="F125" s="17">
-        <v>-40923</v>
+        <v>-33963</v>
       </c>
       <c r="G125" s="17">
-        <v>-33963</v>
+        <v>-96082</v>
       </c>
       <c r="H125" s="17">
-        <v>-96082</v>
+        <v>-200457</v>
       </c>
       <c r="I125" s="17">
-        <v>-200457</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-85595</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
-        <v>0</v>
+        <v>458719</v>
       </c>
       <c r="F126" s="15">
-        <v>458719</v>
+        <v>801356</v>
       </c>
       <c r="G126" s="15">
-        <v>801356</v>
+        <v>800937</v>
       </c>
       <c r="H126" s="15">
-        <v>800937</v>
+        <v>1454797</v>
       </c>
       <c r="I126" s="15">
-        <v>1454797</v>
+        <v>1562461</v>
       </c>
     </row>
   </sheetData>
